--- a/resource/excel/Map——地图.xlsx
+++ b/resource/excel/Map——地图.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>[[0,-148,2],[0,148,2],[222,28,2],[-222,-28,2]]</t>
+  </si>
+  <si>
+    <t>img/battle/bg/bg2</t>
   </si>
   <si>
     <t>[[-500,100,2],[-500,-100,2]]</t>
@@ -1166,7 +1169,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1273,13 +1276,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -1289,8 +1292,8 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E10" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
+  <conditionalFormatting sqref="A1:A6 A9:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1321,39 +1324,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:6">
@@ -1401,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>8000</v>
@@ -1421,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5">
         <v>10000</v>
